--- a/biology/Botanique/Liste_des_espaces_verts_de_Paris/Liste_des_espaces_verts_de_Paris.xlsx
+++ b/biology/Botanique/Liste_des_espaces_verts_de_Paris/Liste_des_espaces_verts_de_Paris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article dresse une liste des espaces verts de Paris, en France.
 </t>
@@ -511,7 +523,9 @@
           <t>Statistiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En mai 2008, Paris comptait 450 espaces verts, répartis ainsi :
 2 bois, totalisant 1 841 ha, soit 17,5 % de la superficie totale de la commune. Le bois de Vincennes comprend en outre l'arboretum de l'école du Breuil, le jardin tropical de Paris et le parc floral de Paris, et le bois de Boulogne le parc de Bagatelle, le jardin d'acclimatation, le jardin des serres d'Auteuil et le jardin du Pré-Catelan.
@@ -551,6 +565,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
